--- a/data/trans_orig/Q46-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>79,05</t>
+          <t>77,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>80,51</t>
+          <t>80,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>78,0</t>
+          <t>79,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>79,85</t>
+          <t>81,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>65,61</t>
+          <t>66,01</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>66,51</t>
+          <t>67,41</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>68,24</t>
+          <t>67,44</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>68,94</t>
+          <t>134,91</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>72,38</t>
+          <t>72,0</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>73,91</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>73,7</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>73,16</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>73,73</t>
+          <t>109,65</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>77,05; 81,4</t>
+          <t>77,09; 78,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,74; 84,7</t>
+          <t>79,23; 81,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75,88; 80,61</t>
+          <t>78,96; 81,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,73; 82,99</t>
+          <t>80,02; 82,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,6; 67,91</t>
+          <t>65,14; 66,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,99; 68,95</t>
+          <t>66,44; 68,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,89; 70,74</t>
+          <t>66,38; 68,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>67,04; 70,88</t>
+          <t>69,5; 348,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>70,57; 74,01</t>
+          <t>71,3; 72,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>71,65; 76,47</t>
+          <t>73,18; 74,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>71,21; 74,88</t>
+          <t>72,85; 74,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>71,73; 75,8</t>
+          <t>75,25; 240,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>77,68</t>
+          <t>78,99</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>80,21</t>
+          <t>79,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>80,34</t>
+          <t>79,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>81,33</t>
+          <t>84,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>66,09</t>
+          <t>65,72</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,58</t>
+          <t>68,36</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>67,27</t>
+          <t>68,21</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>111,01</t>
+          <t>68,31</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>71,92</t>
+          <t>72,34</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>73,95</t>
+          <t>74,11</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>73,81</t>
+          <t>73,99</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>96,97</t>
+          <t>77,17</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,79; 78,54</t>
+          <t>78,23; 79,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,16; 81,26</t>
+          <t>79,12; 80,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,19; 81,5</t>
+          <t>78,97; 80,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,17; 82,57</t>
+          <t>79,67; 91,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,09; 67,14</t>
+          <t>64,96; 66,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,53; 68,52</t>
+          <t>67,47; 69,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,13; 68,33</t>
+          <t>67,44; 69,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>69,75; 247,16</t>
+          <t>67,44; 70,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,22; 72,66</t>
+          <t>71,72; 72,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>73,11; 74,78</t>
+          <t>73,49; 74,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,89; 74,71</t>
+          <t>73,36; 74,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>75,19; 187,95</t>
+          <t>73,96; 85,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>78,99</t>
+          <t>77,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>79,93</t>
+          <t>79,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>79,91</t>
+          <t>79,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>80,99</t>
+          <t>80,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>65,72</t>
+          <t>65,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>68,36</t>
+          <t>68,45</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>68,21</t>
+          <t>66,99</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>68,27</t>
+          <t>71,17</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>72,34</t>
+          <t>71,45</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>74,11</t>
+          <t>73,82</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>73,99</t>
+          <t>73,05</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>74,61</t>
+          <t>75,1</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,23; 79,77</t>
+          <t>76,38; 78,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,12; 80,7</t>
+          <t>78,21; 80,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,97; 80,79</t>
+          <t>78,29; 80,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,55; 84,37</t>
+          <t>78,78; 81,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,96; 66,47</t>
+          <t>64,86; 66,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,47; 69,24</t>
+          <t>67,47; 69,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>67,44; 69,04</t>
+          <t>66,06; 67,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,39; 70,21</t>
+          <t>67,52; 76,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>71,72; 72,96</t>
+          <t>70,78; 72,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>73,49; 74,78</t>
+          <t>73,11; 74,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73,36; 74,69</t>
+          <t>72,27; 73,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>73,64; 77,14</t>
+          <t>73,76; 77,96</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>77,22</t>
+          <t>77,54</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>79,28</t>
+          <t>80,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>79,23</t>
+          <t>80,62</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>80,19</t>
+          <t>80,78</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>65,74</t>
+          <t>64,87</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,45</t>
+          <t>67,73</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>66,99</t>
+          <t>67,74</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>69,67</t>
+          <t>67,02</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>71,45</t>
+          <t>70,91</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>73,82</t>
+          <t>73,59</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>73,05</t>
+          <t>73,9</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>74,51</t>
+          <t>73,34</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,38; 78,09</t>
+          <t>76,83; 78,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,21; 80,27</t>
+          <t>79,18; 81,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,29; 80,41</t>
+          <t>79,77; 81,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>78,96; 81,5</t>
+          <t>79,83; 81,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,86; 66,64</t>
+          <t>64,11; 65,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,47; 69,4</t>
+          <t>66,86; 68,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,06; 67,98</t>
+          <t>66,85; 68,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,49; 73,73</t>
+          <t>65,48; 67,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,78; 72,18</t>
+          <t>70,34; 71,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,11; 74,61</t>
+          <t>73,0; 74,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>72,27; 73,99</t>
+          <t>73,19; 74,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>73,56; 76,33</t>
+          <t>71,74; 74,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>77,54</t>
+          <t>77,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>80,01</t>
+          <t>79,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>80,62</t>
+          <t>79,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>80,71</t>
+          <t>81,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>64,87</t>
+          <t>65,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>67,73</t>
+          <t>68,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>67,74</t>
+          <t>67,65</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>67,43</t>
+          <t>81,67</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>70,91</t>
+          <t>71,66</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>73,59</t>
+          <t>73,86</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>73,9</t>
+          <t>73,7</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>73,51</t>
+          <t>81,77</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,83; 78,36</t>
+          <t>77,55; 78,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,18; 81,01</t>
+          <t>79,43; 80,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,77; 81,5</t>
+          <t>79,44; 80,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,77; 81,66</t>
+          <t>80,28; 86,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>64,11; 65,77</t>
+          <t>65,13; 65,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,86; 68,55</t>
+          <t>67,59; 68,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>66,85; 68,64</t>
+          <t>67,21; 68,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>66,56; 68,24</t>
+          <t>68,36; 134,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>70,34; 71,51</t>
+          <t>71,35; 72,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>73,0; 74,22</t>
+          <t>73,5; 74,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73,19; 74,59</t>
+          <t>73,31; 74,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>72,77; 74,25</t>
+          <t>74,68; 105,05</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>77,98</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>79,88</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>79,96</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>80,76</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>65,52</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>68,0</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>67,65</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>75,29</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>71,66</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>73,86</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>73,7</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>77,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>77,55; 78,4</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>79,43; 80,33</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>79,44; 80,4</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>80,17; 81,84</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>65,13; 65,98</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>67,59; 68,47</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>67,21; 68,11</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>68,43; 104,59</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>71,35; 72,0</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>73,5; 74,19</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>73,31; 74,06</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>74,25; 90,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/Q46-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Habitat-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>77,09; 78,71</t>
+          <t>77,08; 78,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,23; 81,33</t>
+          <t>79,3; 81,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,96; 81,09</t>
+          <t>78,95; 81,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,02; 82,34</t>
+          <t>79,84; 82,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,14; 66,86</t>
+          <t>65,12; 66,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>66,44; 68,4</t>
+          <t>66,42; 68,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>66,38; 68,53</t>
+          <t>66,4; 68,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,5; 348,88</t>
+          <t>69,44; 327,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>71,3; 72,7</t>
+          <t>71,28; 72,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>73,18; 74,7</t>
+          <t>73,16; 74,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>72,85; 74,53</t>
+          <t>72,86; 74,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>75,25; 240,33</t>
+          <t>75,2; 239,47</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78,23; 79,77</t>
+          <t>78,25; 79,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,12; 80,7</t>
+          <t>79,13; 80,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,97; 80,79</t>
+          <t>78,89; 80,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,67; 91,52</t>
+          <t>79,7; 91,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,96; 66,47</t>
+          <t>65,02; 66,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,47; 69,24</t>
+          <t>67,54; 69,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,44; 69,04</t>
+          <t>67,38; 69,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67,44; 70,26</t>
+          <t>67,36; 70,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,72; 72,96</t>
+          <t>71,75; 73,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>73,49; 74,78</t>
+          <t>73,47; 74,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>73,36; 74,69</t>
+          <t>73,33; 74,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>73,96; 85,16</t>
+          <t>73,94; 86,33</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,38; 78,09</t>
+          <t>76,4; 78,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>78,21; 80,27</t>
+          <t>78,32; 80,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,29; 80,41</t>
+          <t>78,2; 80,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>78,78; 81,41</t>
+          <t>78,79; 81,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,86; 66,64</t>
+          <t>64,9; 66,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,47; 69,4</t>
+          <t>67,52; 69,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>66,06; 67,98</t>
+          <t>65,98; 67,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,52; 76,26</t>
+          <t>67,43; 76,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,78; 72,18</t>
+          <t>70,75; 72,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>73,11; 74,61</t>
+          <t>73,15; 74,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,27; 73,99</t>
+          <t>72,24; 73,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>73,76; 77,96</t>
+          <t>73,7; 77,54</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,83; 78,36</t>
+          <t>76,79; 78,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,18; 81,01</t>
+          <t>79,12; 80,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,77; 81,5</t>
+          <t>79,73; 81,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,83; 81,79</t>
+          <t>79,81; 81,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,11; 65,77</t>
+          <t>64,11; 65,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,86; 68,55</t>
+          <t>66,96; 68,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,85; 68,64</t>
+          <t>66,84; 68,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>65,48; 67,89</t>
+          <t>65,63; 67,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,34; 71,51</t>
+          <t>70,32; 71,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,0; 74,22</t>
+          <t>72,93; 74,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,19; 74,59</t>
+          <t>73,24; 74,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,74; 74,18</t>
+          <t>71,74; 74,21</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,55; 78,4</t>
+          <t>77,56; 78,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,43; 80,33</t>
+          <t>79,45; 80,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,44; 80,4</t>
+          <t>79,51; 80,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>80,28; 86,32</t>
+          <t>80,32; 86,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>65,13; 65,98</t>
+          <t>65,1; 65,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,59; 68,47</t>
+          <t>67,55; 68,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>67,21; 68,11</t>
+          <t>67,23; 68,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,36; 134,05</t>
+          <t>68,34; 129,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>71,35; 72,0</t>
+          <t>71,33; 71,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>73,5; 74,19</t>
+          <t>73,52; 74,22</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73,31; 74,06</t>
+          <t>73,33; 74,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>74,68; 105,05</t>
+          <t>74,57; 105,93</t>
         </is>
       </c>
     </row>
